--- a/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
+++ b/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,10 +435,10 @@
         <v>18</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -453,7 +453,7 @@
         <v>-1</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I1">
         <v>-1</v>
@@ -481,6 +481,9 @@
       </c>
       <c r="Q1">
         <v>-1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -606,9 +609,6 @@
       </c>
       <c r="E5">
         <v>500</v>
-      </c>
-      <c r="R5">
-        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
+++ b/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Full Scale (sccm)</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>Starting Set Point for Furnace</t>
+  </si>
+  <si>
+    <t>First Set Point</t>
+  </si>
+  <si>
+    <t>Temperature must be &gt; 0</t>
+  </si>
+  <si>
+    <t>"-1 Tells the furnace to shut off"</t>
+  </si>
+  <si>
+    <t>Leave this blank</t>
+  </si>
+  <si>
+    <t>Next to Last Furnace Entry must have a temperature</t>
   </si>
 </sst>
 </file>
@@ -417,20 +435,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375"/>
     <col min="2" max="2" width="8"/>
-    <col min="3" max="1025" width="8.77734375"/>
+    <col min="3" max="9" width="8.77734375"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="18" width="8.77734375"/>
+    <col min="20" max="1026" width="8.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -462,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L1">
         <v>-1</v>
@@ -483,24 +504,24 @@
         <v>-1</v>
       </c>
       <c r="R1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
         <v>1000</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
       <c r="D2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -514,8 +535,14 @@
       <c r="I2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -544,34 +571,34 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -585,18 +612,15 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="R4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -608,12 +632,18 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>600</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>250</v>
@@ -621,13 +651,10 @@
       <c r="C6">
         <v>50</v>
       </c>
-      <c r="R6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -639,39 +666,83 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="S7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.4</v>
-      </c>
-      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>1000</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
+++ b/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15576" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,20 +438,20 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375"/>
+    <col min="1" max="1" width="15.140625"/>
     <col min="2" max="2" width="8"/>
-    <col min="3" max="9" width="8.77734375"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="18" width="8.77734375"/>
-    <col min="20" max="1026" width="8.77734375"/>
+    <col min="3" max="9" width="8.7109375"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="18" width="8.7109375"/>
+    <col min="20" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -507,7 +507,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -598,7 +598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -618,7 +618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -635,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="S5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -652,7 +652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -669,13 +669,13 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -686,7 +686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -694,7 +694,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
@@ -713,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15</v>
       </c>
@@ -736,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1</v>
       </c>

--- a/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
+++ b/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Full Scale (sccm)</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Next to Last Furnace Entry must have a temperature</t>
+  </si>
+  <si>
+    <t>Need to have repeated temperature for last temperature event; furnace recipe ends here</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +623,7 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -635,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
         <v>21</v>
@@ -643,101 +646,85 @@
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>250</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="S6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>300</v>
       </c>
-      <c r="S7" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>201</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>201</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>1.2</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="J11">
-        <v>100</v>
-      </c>
-      <c r="S11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>-1</v>
-      </c>
-      <c r="S12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
         <v>-1</v>
       </c>
     </row>

--- a/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
+++ b/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
         <v>21</v>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S6" t="s">
         <v>22</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>0.8</v>
       </c>
       <c r="J8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S8" t="s">
         <v>25</v>

--- a/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
+++ b/MFCcontrol/bin/Debug/CVD_recipe1.xlsx
@@ -683,7 +683,7 @@
         <v>0.8</v>
       </c>
       <c r="J8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S8" t="s">
         <v>25</v>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
